--- a/results/call_patterns_analysis.xlsx
+++ b/results/call_patterns_analysis.xlsx
@@ -1,14 +1,33 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="segment_patterns" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sentiment_patterns" sheetId="2" state="visible" r:id="rId2"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -27,12 +46,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +460,6135 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E287"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>elite_level_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>primary_call_reason</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>call_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>handle_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>average_sentiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Baggage</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>345</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.02347826086956522</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Baggage</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>531</v>
+      </c>
+      <c r="D3" t="n">
+        <v>341.4689265536723</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.02401904761904762</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baggage  </t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>267.8571428571428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.002142857142857143</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>520</v>
+      </c>
+      <c r="D5" t="n">
+        <v>453.5769230769231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.02127413127413127</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Booking  </t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>372</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.076</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Check In</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>74</v>
+      </c>
+      <c r="D7" t="n">
+        <v>640.5405405405405</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.01216216216216216</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>299</v>
+      </c>
+      <c r="D8" t="n">
+        <v>595.3846153846154</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.05153846153846154</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check-In  </t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>160</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.02666666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Checkout</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>388</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1012.886597938144</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.07284237726098192</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Checkout  </t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1705.714285714286</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.05857142857142857</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>740</v>
+      </c>
+      <c r="D12" t="n">
+        <v>869.6756756756756</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.03374324324324324</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communications  </t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>642.8571428571429</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.00285714285714286</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Digital   Support</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>23</v>
+      </c>
+      <c r="D14" t="n">
+        <v>339.1304347826087</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.05130434782608696</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Digital  Support</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D15" t="n">
+        <v>233.3333333333333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.03222222222222222</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Digital Support</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>203</v>
+      </c>
+      <c r="D16" t="n">
+        <v>443.0541871921182</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.04783251231527094</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digital Support  </t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>180</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.09666666666666668</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Disability</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>74</v>
+      </c>
+      <c r="D18" t="n">
+        <v>242.4324324324324</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02756756756756757</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>189</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1035.873015873016</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.04260638297872341</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ETC  </t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1460</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>IRROPS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2585</v>
+      </c>
+      <c r="D21" t="n">
+        <v>802.9090909090909</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.07506005424254164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRROPS  </t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>53</v>
+      </c>
+      <c r="D22" t="n">
+        <v>635.0943396226415</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.04811320754716981</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Mileage   Plus</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>875.4545454545455</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.025</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Mileage  Plus</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>29</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1127.586206896552</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.02448275862068966</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Mileage Plus</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D25" t="n">
+        <v>987.1442035815269</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.02410377358490566</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mileage Plus  </t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.03083333333333333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Other  Topics</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>49</v>
+      </c>
+      <c r="D27" t="n">
+        <v>328.1632653061225</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.004693877551020408</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Other Topics</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>101</v>
+      </c>
+      <c r="D28" t="n">
+        <v>347.5247524752475</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.02435643564356436</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other Topics  </t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>330</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Post Flight</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>81</v>
+      </c>
+      <c r="D30" t="n">
+        <v>782.2222222222222</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.0275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Post-Flight</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>730</v>
+      </c>
+      <c r="D31" t="n">
+        <v>898.6849315068494</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.0650412087912088</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post-Flight  </t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>18</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.07833333333333334</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Products &amp; Services</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>105</v>
+      </c>
+      <c r="D33" t="n">
+        <v>643.4285714285714</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.0339047619047619</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Products and Services</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>554</v>
+      </c>
+      <c r="D34" t="n">
+        <v>782.5992779783394</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.02962025316455696</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Products and Services  </t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="n">
+        <v>856</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.06733333333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Change</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>137</v>
+      </c>
+      <c r="D36" t="n">
+        <v>553.1386861313869</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.03547445255474452</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schedule Change  </t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" t="n">
+        <v>522.8571428571429</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.07285714285714286</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Seating</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1276</v>
+      </c>
+      <c r="D38" t="n">
+        <v>449.7648902821317</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.004070588235294118</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seating  </t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" t="n">
+        <v>402.5806451612903</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.02193548387096774</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Traveler   Updates</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>30</v>
+      </c>
+      <c r="D40" t="n">
+        <v>298</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.04833333333333334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Traveler  Updates</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>252</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Traveler Updates</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>164</v>
+      </c>
+      <c r="D42" t="n">
+        <v>385.9756097560976</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01343558282208589</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traveler Updates  </t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>588</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Unaccompanied Minor</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>17</v>
+      </c>
+      <c r="D44" t="n">
+        <v>430.5882352941176</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.004117647058823527</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>543</v>
+      </c>
+      <c r="D45" t="n">
+        <v>642.7624309392265</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.01197416974169742</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upgrade  </t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>650.7692307692307</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.04846153846153846</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary   Change</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>44</v>
+      </c>
+      <c r="D47" t="n">
+        <v>741.8181818181819</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.003863636363636364</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Cancel</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>65</v>
+      </c>
+      <c r="D48" t="n">
+        <v>640.6153846153846</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.005076923076923078</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Change</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>32</v>
+      </c>
+      <c r="D49" t="n">
+        <v>470.625</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.004374999999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Cancel</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>269</v>
+      </c>
+      <c r="D50" t="n">
+        <v>722.2304832713754</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.02929368029739777</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Cancel  </t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>240</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Change</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2091</v>
+      </c>
+      <c r="D52" t="n">
+        <v>647.4892395982783</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.004131163235998086</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Change  </t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>36</v>
+      </c>
+      <c r="D53" t="n">
+        <v>565</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.01416666666666667</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Baggage</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>19</v>
+      </c>
+      <c r="D54" t="n">
+        <v>331.578947368421</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.06736842105263158</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Baggage</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>581</v>
+      </c>
+      <c r="D55" t="n">
+        <v>316.4199655765921</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0.01495697074010327</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baggage  </t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>33</v>
+      </c>
+      <c r="D56" t="n">
+        <v>354.5454545454546</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.0503030303030303</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>512</v>
+      </c>
+      <c r="D57" t="n">
+        <v>413.3203125</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.004774066797642435</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Booking  </t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>11</v>
+      </c>
+      <c r="D58" t="n">
+        <v>643.6363636363636</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0.09363636363636364</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>Check In</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>80</v>
+      </c>
+      <c r="D59" t="n">
+        <v>458.25</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.04625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>271</v>
+      </c>
+      <c r="D60" t="n">
+        <v>659.1143911439115</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.04848148148148148</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check-In  </t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1133.333333333333</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.1477777777777778</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Checkout</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>342</v>
+      </c>
+      <c r="D62" t="n">
+        <v>970.5263157894736</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.07444444444444445</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Checkout  </t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>945</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>791</v>
+      </c>
+      <c r="D64" t="n">
+        <v>807.0037926675095</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.03458227848101266</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communications  </t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>13</v>
+      </c>
+      <c r="D65" t="n">
+        <v>484.6153846153846</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.02230769230769231</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>Digital   Support</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>37</v>
+      </c>
+      <c r="D66" t="n">
+        <v>238.3783783783784</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.05459459459459459</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>Digital  Support</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>16</v>
+      </c>
+      <c r="D67" t="n">
+        <v>412.5</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>Digital Support</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>214</v>
+      </c>
+      <c r="D68" t="n">
+        <v>339.5327102803738</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.03793427230046948</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digital Support  </t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>420</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Disability</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>83</v>
+      </c>
+      <c r="D70" t="n">
+        <v>289.8795180722892</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.02433734939759036</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disability  </t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>120</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>164</v>
+      </c>
+      <c r="D72" t="n">
+        <v>964.0243902439024</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.05932926829268293</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ETC  </t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.006666666666666672</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>IRROPS</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2551</v>
+      </c>
+      <c r="D74" t="n">
+        <v>774.8255586044688</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.08184530820573224</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRROPS  </t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>54</v>
+      </c>
+      <c r="D75" t="n">
+        <v>775.5555555555555</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.07574074074074073</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>Mileage   Plus</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>30</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1038</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Mileage  Plus</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>27</v>
+      </c>
+      <c r="D77" t="n">
+        <v>951.1111111111111</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.03666666666666667</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Mileage Plus</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D78" t="n">
+        <v>990.2264150943396</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.02793005671077505</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mileage Plus  </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>16</v>
+      </c>
+      <c r="D79" t="n">
+        <v>731.25</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.001874999999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Other  Topics</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>48</v>
+      </c>
+      <c r="D80" t="n">
+        <v>318.75</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.026875</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>Other Topics</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>124</v>
+      </c>
+      <c r="D81" t="n">
+        <v>358.5483870967742</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.01120967741935484</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other Topics  </t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>437.1428571428572</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.03285714285714286</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Post Flight</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>74</v>
+      </c>
+      <c r="D83" t="n">
+        <v>993.2432432432432</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-0.07040540540540541</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Post-Flight</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>788</v>
+      </c>
+      <c r="D84" t="n">
+        <v>949.7208121827412</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-0.06663278271918678</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post-Flight  </t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>16</v>
+      </c>
+      <c r="D85" t="n">
+        <v>626.25</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.119375</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Products &amp; Services</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>90</v>
+      </c>
+      <c r="D86" t="n">
+        <v>746</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-0.0538888888888889</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Products and Services</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>556</v>
+      </c>
+      <c r="D87" t="n">
+        <v>734.8920863309353</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-0.04243243243243244</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Products and Services  </t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>16</v>
+      </c>
+      <c r="D88" t="n">
+        <v>457.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-0.075625</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Change</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>142</v>
+      </c>
+      <c r="D89" t="n">
+        <v>486.3380281690141</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.0376056338028169</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schedule Change  </t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>760</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>Seating</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D91" t="n">
+        <v>460.9045226130654</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.0001088777219430484</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seating  </t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>24</v>
+      </c>
+      <c r="D92" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.009166666666666668</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>Traveler   Updates</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>22</v>
+      </c>
+      <c r="D93" t="n">
+        <v>335.4545454545454</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.03590909090909091</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>Traveler  Updates</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>750</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.038</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Traveler Updates</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>149</v>
+      </c>
+      <c r="D95" t="n">
+        <v>365.2348993288591</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.01308724832214765</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Unaccompanied Minor</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>19</v>
+      </c>
+      <c r="D96" t="n">
+        <v>416.8421052631579</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.02842105263157895</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>572</v>
+      </c>
+      <c r="D97" t="n">
+        <v>619.8251748251748</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.01395104895104895</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upgrade  </t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>11</v>
+      </c>
+      <c r="D98" t="n">
+        <v>523.6363636363636</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.01363636363636364</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary   Change</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>45</v>
+      </c>
+      <c r="D99" t="n">
+        <v>565.3333333333334</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.01777777777777778</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Cancel</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>52</v>
+      </c>
+      <c r="D100" t="n">
+        <v>706.1538461538462</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.01384615384615385</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Change</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>31</v>
+      </c>
+      <c r="D101" t="n">
+        <v>625.1612903225806</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.02967741935483871</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Cancel</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>245</v>
+      </c>
+      <c r="D102" t="n">
+        <v>789.795918367347</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.04077551020408163</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Cancel  </t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>625.7142857142857</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Change</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2117</v>
+      </c>
+      <c r="D104" t="n">
+        <v>646.3108171941426</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.006307328605200946</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Change  </t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>48</v>
+      </c>
+      <c r="D105" t="n">
+        <v>630</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.0002083333333333341</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Baggage</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>Baggage</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>269</v>
+      </c>
+      <c r="D107" t="n">
+        <v>312.7137546468401</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.02097014925373135</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baggage  </t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>13</v>
+      </c>
+      <c r="D108" t="n">
+        <v>221.5384615384615</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.08230769230769232</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>246</v>
+      </c>
+      <c r="D109" t="n">
+        <v>412.1951219512195</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-0.02178861788617886</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Booking  </t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>525</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.007500000000000001</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>Check In</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>35</v>
+      </c>
+      <c r="D111" t="n">
+        <v>773.1428571428571</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0.03685714285714286</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>157</v>
+      </c>
+      <c r="D112" t="n">
+        <v>552.9936305732484</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.03269230769230769</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check-In  </t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>165</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>Checkout</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>190</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1012.736842105263</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.06073684210526317</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Checkout  </t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>790</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>392</v>
+      </c>
+      <c r="D116" t="n">
+        <v>858.3673469387755</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.0385204081632653</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communications  </t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1240</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.02666666666666667</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>Digital   Support</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>273.3333333333333</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.0188888888888889</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>Digital  Support</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="n">
+        <v>348</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>Digital Support</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>101</v>
+      </c>
+      <c r="D120" t="n">
+        <v>402.1782178217822</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.05138613861386139</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digital Support  </t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>360</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>Disability</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>44</v>
+      </c>
+      <c r="D122" t="n">
+        <v>286.3636363636364</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.06613636363636365</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disability  </t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>60</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>193</v>
+      </c>
+      <c r="D124" t="n">
+        <v>880.1036269430052</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.05756476683937824</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ETC  </t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2928</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>IRROPS</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1348</v>
+      </c>
+      <c r="D126" t="n">
+        <v>774.080118694362</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.07040059347181009</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRROPS  </t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>25</v>
+      </c>
+      <c r="D127" t="n">
+        <v>818.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.07679999999999999</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>Mileage   Plus</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>27</v>
+      </c>
+      <c r="D128" t="n">
+        <v>977.7777777777778</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.002222222222222223</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>Mileage  Plus</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>18</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1203.333333333333</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.02166666666666667</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>Mileage Plus</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D130" t="n">
+        <v>978.0807174887892</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-0.02940647482014389</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mileage Plus  </t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>12</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1235</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.015</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>Other  Topics</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>20</v>
+      </c>
+      <c r="D132" t="n">
+        <v>267</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.0185</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>Other Topics</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>56</v>
+      </c>
+      <c r="D133" t="n">
+        <v>318.2142857142857</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.01035714285714286</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other Topics  </t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>240</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>Post Flight</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>36</v>
+      </c>
+      <c r="D135" t="n">
+        <v>926.6666666666666</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-0.05305555555555556</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>Post-Flight</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>424</v>
+      </c>
+      <c r="D136" t="n">
+        <v>929.433962264151</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-0.05377358490566038</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post-Flight  </t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>13</v>
+      </c>
+      <c r="D137" t="n">
+        <v>498.4615384615385</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.009230769230769232</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>Products &amp; Services</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>47</v>
+      </c>
+      <c r="D138" t="n">
+        <v>699.5744680851063</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.05914893617021277</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="inlineStr">
+        <is>
+          <t>Products and Services</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>295</v>
+      </c>
+      <c r="D139" t="n">
+        <v>729.1525423728814</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.02962585034013606</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Products and Services  </t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Change</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>68</v>
+      </c>
+      <c r="D141" t="n">
+        <v>292.9411764705882</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.03161764705882353</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schedule Change  </t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="inlineStr">
+        <is>
+          <t>Seating</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>609</v>
+      </c>
+      <c r="D143" t="n">
+        <v>476.0591133004926</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.0002134646962233172</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seating  </t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>15</v>
+      </c>
+      <c r="D144" t="n">
+        <v>600</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-0.01066666666666666</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>Traveler   Updates</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>13</v>
+      </c>
+      <c r="D145" t="n">
+        <v>678.4615384615385</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.02615384615384616</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n"/>
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>Traveler  Updates</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>170</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.05000000000000001</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n"/>
+      <c r="B147" s="1" t="inlineStr">
+        <is>
+          <t>Traveler Updates</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>78</v>
+      </c>
+      <c r="D147" t="n">
+        <v>363.8461538461539</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.02179487179487179</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n"/>
+      <c r="B148" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traveler Updates  </t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>480</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="inlineStr">
+        <is>
+          <t>Unaccompanied Minor</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>460</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-0.01222222222222222</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="1" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>276</v>
+      </c>
+      <c r="D150" t="n">
+        <v>663.695652173913</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-0.01305454545454545</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upgrade  </t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>340</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.01166666666666666</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n"/>
+      <c r="B152" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary   Change</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>23</v>
+      </c>
+      <c r="D152" t="n">
+        <v>646.9565217391304</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.02391304347826087</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Cancel</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>28</v>
+      </c>
+      <c r="D153" t="n">
+        <v>848.5714285714286</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.009642857142857144</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n"/>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Change</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>13</v>
+      </c>
+      <c r="D154" t="n">
+        <v>770.7692307692307</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.02230769230769231</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n"/>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Cancel</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>138</v>
+      </c>
+      <c r="D155" t="n">
+        <v>671.304347826087</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-0.0441304347826087</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Cancel  </t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>804</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-0.122</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Change</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D157" t="n">
+        <v>670.1275760549559</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.001501472031403337</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Change  </t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>25</v>
+      </c>
+      <c r="D158" t="n">
+        <v>602.4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-0.0464</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Baggage</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>390</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-0.005000000000000004</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>Baggage</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>188</v>
+      </c>
+      <c r="D160" t="n">
+        <v>301.2765957446808</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-0.01414893617021277</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baggage  </t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.01375</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>184</v>
+      </c>
+      <c r="D162" t="n">
+        <v>402.0652173913044</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-0.000437158469945355</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Booking  </t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>330</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>Check In</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>32</v>
+      </c>
+      <c r="D164" t="n">
+        <v>474.375</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-0.0009375000000000017</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>114</v>
+      </c>
+      <c r="D165" t="n">
+        <v>457.3684210526316</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-0.04868421052631579</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check-In  </t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-0.145</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>Checkout</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>121</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1077.02479338843</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-0.06388429752066116</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Checkout  </t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>3</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="1" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>269</v>
+      </c>
+      <c r="D169" t="n">
+        <v>734.2750929368029</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-0.03007434944237918</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communications  </t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>Digital   Support</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>12</v>
+      </c>
+      <c r="D171" t="n">
+        <v>645</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0.03833333333333334</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n"/>
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>Digital  Support</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" t="n">
+        <v>330</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>Digital Support</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>68</v>
+      </c>
+      <c r="D173" t="n">
+        <v>374.1176470588235</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-0.03470588235294118</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digital Support  </t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>60</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="inlineStr">
+        <is>
+          <t>Disability</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>26</v>
+      </c>
+      <c r="D175" t="n">
+        <v>376.1538461538461</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.06961538461538462</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n"/>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>159</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1002.641509433962</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-0.04408805031446541</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ETC  </t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>240</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n"/>
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>IRROPS</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>851</v>
+      </c>
+      <c r="D178" t="n">
+        <v>747.7790834312574</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-0.07016451233842538</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRROPS  </t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>19</v>
+      </c>
+      <c r="D179" t="n">
+        <v>461.0526315789473</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-0.07894736842105263</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="1" t="inlineStr">
+        <is>
+          <t>Mileage   Plus</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>25</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1053.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.0464</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n"/>
+      <c r="B181" s="1" t="inlineStr">
+        <is>
+          <t>Mileage  Plus</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>27</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1057.777777777778</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-0.04222222222222222</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n"/>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>Mileage Plus</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>972</v>
+      </c>
+      <c r="D182" t="n">
+        <v>997.9012345679013</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-0.02788065843621399</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mileage Plus  </t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>14</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-0.03857142857142858</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n"/>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>Other  Topics</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>11</v>
+      </c>
+      <c r="D184" t="n">
+        <v>272.7272727272727</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-0.03818181818181818</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>Other Topics</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>41</v>
+      </c>
+      <c r="D185" t="n">
+        <v>400.9756097560976</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-0.002439024390243903</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n"/>
+      <c r="B186" s="1" t="inlineStr">
+        <is>
+          <t>Post Flight</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>31</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1300.645161290323</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-0.0803225806451613</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="1" t="inlineStr">
+        <is>
+          <t>Post-Flight</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>273</v>
+      </c>
+      <c r="D187" t="n">
+        <v>918.2417582417582</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-0.06059040590405905</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n"/>
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post-Flight  </t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-0.03666666666666667</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n"/>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>Products &amp; Services</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>28</v>
+      </c>
+      <c r="D189" t="n">
+        <v>818.5714285714286</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-0.0175</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n"/>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>Products and Services</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>186</v>
+      </c>
+      <c r="D190" t="n">
+        <v>726.7741935483871</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-0.03263440860215054</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n"/>
+      <c r="B191" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Products and Services  </t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>300</v>
+      </c>
+      <c r="E191" t="n">
+        <v>-0.1266666666666667</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Change</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>44</v>
+      </c>
+      <c r="D192" t="n">
+        <v>499.0909090909091</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-0.03295454545454545</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n"/>
+      <c r="B193" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schedule Change  </t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2760</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n"/>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>Seating</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>421</v>
+      </c>
+      <c r="D194" t="n">
+        <v>472.0190023752969</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-0.008976190476190476</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n"/>
+      <c r="B195" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seating  </t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>14</v>
+      </c>
+      <c r="D195" t="n">
+        <v>471.4285714285714</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-0.004285714285714285</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n"/>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>Traveler   Updates</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>8</v>
+      </c>
+      <c r="D196" t="n">
+        <v>180</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.0225</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>Traveler  Updates</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>440</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-0.02333333333333333</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n"/>
+      <c r="B198" s="1" t="inlineStr">
+        <is>
+          <t>Traveler Updates</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>53</v>
+      </c>
+      <c r="D198" t="n">
+        <v>383.7735849056604</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-0.00320754716981132</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n"/>
+      <c r="B199" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traveler Updates  </t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="n">
+        <v>120</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n"/>
+      <c r="B200" s="1" t="inlineStr">
+        <is>
+          <t>Unaccompanied Minor</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>8</v>
+      </c>
+      <c r="D200" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>-0.0225</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n"/>
+      <c r="B201" s="1" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>213</v>
+      </c>
+      <c r="D201" t="n">
+        <v>681.9718309859155</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-0.01868544600938967</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n"/>
+      <c r="B202" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upgrade  </t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2</v>
+      </c>
+      <c r="D202" t="n">
+        <v>660</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n"/>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary   Change</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>12</v>
+      </c>
+      <c r="D203" t="n">
+        <v>385</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n"/>
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Cancel</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>19</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1076.842105263158</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-0.03842105263157895</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n"/>
+      <c r="B205" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Change</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>13</v>
+      </c>
+      <c r="D205" t="n">
+        <v>655.3846153846154</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n"/>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Cancel</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>87</v>
+      </c>
+      <c r="D206" t="n">
+        <v>719.3103448275862</v>
+      </c>
+      <c r="E206" t="n">
+        <v>-0.04298850574712644</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n"/>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Cancel  </t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="n">
+        <v>240</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n"/>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Change</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>680</v>
+      </c>
+      <c r="D208" t="n">
+        <v>634.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-0.01541973490427099</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n"/>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Change  </t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>14</v>
+      </c>
+      <c r="D209" t="n">
+        <v>522.8571428571429</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.05285714285714287</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B210" s="1" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>61</v>
+      </c>
+      <c r="D210" t="n">
+        <v>326.5573770491803</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-0.03672131147540983</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Booking  </t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>360</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n"/>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>Check In</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>8</v>
+      </c>
+      <c r="D212" t="n">
+        <v>637.5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-0.10625</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n"/>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>34</v>
+      </c>
+      <c r="D213" t="n">
+        <v>377.6470588235294</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.03705882352941176</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n"/>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check-In  </t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>120</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n"/>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>Checkout</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>34</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1132.941176470588</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-0.08558823529411765</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n"/>
+      <c r="B216" s="1" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>76</v>
+      </c>
+      <c r="D216" t="n">
+        <v>792.6315789473684</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-0.04197368421052632</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n"/>
+      <c r="B217" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communications  </t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" t="n">
+        <v>450</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-0.045</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n"/>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>Digital   Support</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>220</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-0.01666666666666667</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n"/>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>Digital Support</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>16</v>
+      </c>
+      <c r="D219" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-0.060625</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n"/>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>Disability</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>9</v>
+      </c>
+      <c r="D220" t="n">
+        <v>320</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.09444444444444444</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n"/>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>123</v>
+      </c>
+      <c r="D221" t="n">
+        <v>935.609756097561</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-0.05642276422764228</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n"/>
+      <c r="B222" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ETC  </t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>4</v>
+      </c>
+      <c r="D222" t="n">
+        <v>825</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n"/>
+      <c r="B223" s="1" t="inlineStr">
+        <is>
+          <t>IRROPS</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>293</v>
+      </c>
+      <c r="D223" t="n">
+        <v>724.0955631399318</v>
+      </c>
+      <c r="E223" t="n">
+        <v>-0.06873720136518771</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n"/>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRROPS  </t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>5</v>
+      </c>
+      <c r="D224" t="n">
+        <v>576</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-0.122</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n"/>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>Mileage   Plus</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>15</v>
+      </c>
+      <c r="D225" t="n">
+        <v>640</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n"/>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>Mileage  Plus</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>20</v>
+      </c>
+      <c r="D226" t="n">
+        <v>744</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-0.08099999999999999</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n"/>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>Mileage Plus</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>667</v>
+      </c>
+      <c r="D227" t="n">
+        <v>955.952023988006</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-0.03031484257871064</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n"/>
+      <c r="B228" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mileage Plus  </t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>20</v>
+      </c>
+      <c r="D228" t="n">
+        <v>858</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-0.016</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n"/>
+      <c r="B229" s="1" t="inlineStr">
+        <is>
+          <t>Other  Topics</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>700</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-5.782411586589357e-19</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>Other Topics</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>7</v>
+      </c>
+      <c r="D230" t="n">
+        <v>351.4285714285714</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.02428571428571429</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n"/>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>Post Flight</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>7</v>
+      </c>
+      <c r="D231" t="n">
+        <v>660</v>
+      </c>
+      <c r="E231" t="n">
+        <v>-0.1114285714285714</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n"/>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>Post-Flight</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>82</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1019.268292682927</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-0.07451219512195123</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n"/>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post-Flight  </t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n"/>
+      <c r="B234" s="1" t="inlineStr">
+        <is>
+          <t>Products &amp; Services</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>11</v>
+      </c>
+      <c r="D234" t="n">
+        <v>807.2727272727273</v>
+      </c>
+      <c r="E234" t="n">
+        <v>-0.06818181818181818</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n"/>
+      <c r="B235" s="1" t="inlineStr">
+        <is>
+          <t>Products and Services</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>63</v>
+      </c>
+      <c r="D235" t="n">
+        <v>700.952380952381</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-0.02650793650793651</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n"/>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Products and Services  </t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>600</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n"/>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Change</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>20</v>
+      </c>
+      <c r="D237" t="n">
+        <v>330</v>
+      </c>
+      <c r="E237" t="n">
+        <v>-0.0255</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n"/>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schedule Change  </t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n"/>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>Seating</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>132</v>
+      </c>
+      <c r="D239" t="n">
+        <v>428.6363636363636</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-0.008863636363636365</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n"/>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seating  </t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>390</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n"/>
+      <c r="B241" s="1" t="inlineStr">
+        <is>
+          <t>Traveler   Updates</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>480</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n"/>
+      <c r="B242" s="1" t="inlineStr">
+        <is>
+          <t>Traveler Updates</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>10</v>
+      </c>
+      <c r="D242" t="n">
+        <v>390</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n"/>
+      <c r="B243" s="1" t="inlineStr">
+        <is>
+          <t>Unaccompanied Minor</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>2</v>
+      </c>
+      <c r="D243" t="n">
+        <v>180</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n"/>
+      <c r="B244" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary   Change</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+      <c r="D244" t="n">
+        <v>630</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-0.055</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n"/>
+      <c r="B245" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Cancel</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>6</v>
+      </c>
+      <c r="D245" t="n">
+        <v>510</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n"/>
+      <c r="B246" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Change</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>240</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n"/>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Cancel</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>28</v>
+      </c>
+      <c r="D247" t="n">
+        <v>737.1428571428571</v>
+      </c>
+      <c r="E247" t="n">
+        <v>-0.01321428571428571</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n"/>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Change</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>184</v>
+      </c>
+      <c r="D248" t="n">
+        <v>603.5869565217391</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-0.003097826086956522</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n"/>
+      <c r="B249" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Change  </t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>3</v>
+      </c>
+      <c r="D249" t="n">
+        <v>540</v>
+      </c>
+      <c r="E249" t="n">
+        <v>-0.003333333333333334</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B250" s="1" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>26</v>
+      </c>
+      <c r="D250" t="n">
+        <v>459.2307692307692</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.02192307692307693</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n"/>
+      <c r="B251" s="1" t="inlineStr">
+        <is>
+          <t>Check In</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>660</v>
+      </c>
+      <c r="E251" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>13</v>
+      </c>
+      <c r="D252" t="n">
+        <v>729.2307692307693</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.01769230769230769</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n"/>
+      <c r="B253" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check-In  </t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>60</v>
+      </c>
+      <c r="E253" t="n">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="inlineStr">
+        <is>
+          <t>Checkout</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>19</v>
+      </c>
+      <c r="D254" t="n">
+        <v>953.6842105263158</v>
+      </c>
+      <c r="E254" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Checkout  </t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E255" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>32</v>
+      </c>
+      <c r="D256" t="n">
+        <v>982.5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>-0.0253125</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n"/>
+      <c r="B257" s="1" t="inlineStr">
+        <is>
+          <t>Digital  Support</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>240</v>
+      </c>
+      <c r="E257" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n"/>
+      <c r="B258" s="1" t="inlineStr">
+        <is>
+          <t>Digital Support</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>12</v>
+      </c>
+      <c r="D258" t="n">
+        <v>525</v>
+      </c>
+      <c r="E258" t="n">
+        <v>-0.06083333333333334</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n"/>
+      <c r="B259" s="1" t="inlineStr">
+        <is>
+          <t>Disability</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>3</v>
+      </c>
+      <c r="D259" t="n">
+        <v>160</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n"/>
+      <c r="B260" s="1" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>102</v>
+      </c>
+      <c r="D260" t="n">
+        <v>815.8823529411765</v>
+      </c>
+      <c r="E260" t="n">
+        <v>-0.02794117647058824</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n"/>
+      <c r="B261" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ETC  </t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>3</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E261" t="n">
+        <v>-0.06333333333333334</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n"/>
+      <c r="B262" s="1" t="inlineStr">
+        <is>
+          <t>IRROPS</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>142</v>
+      </c>
+      <c r="D262" t="n">
+        <v>813.3802816901408</v>
+      </c>
+      <c r="E262" t="n">
+        <v>-0.07091549295774648</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n"/>
+      <c r="B263" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRROPS  </t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>580</v>
+      </c>
+      <c r="E263" t="n">
+        <v>-0.04666666666666667</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n"/>
+      <c r="B264" s="1" t="inlineStr">
+        <is>
+          <t>Mileage   Plus</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>10</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E264" t="n">
+        <v>-0.05900000000000001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n"/>
+      <c r="B265" s="1" t="inlineStr">
+        <is>
+          <t>Mileage  Plus</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>14</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1011.428571428571</v>
+      </c>
+      <c r="E265" t="n">
+        <v>-0.01857142857142857</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n"/>
+      <c r="B266" s="1" t="inlineStr">
+        <is>
+          <t>Mileage Plus</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>612</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1092.156862745098</v>
+      </c>
+      <c r="E266" t="n">
+        <v>-0.0269281045751634</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n"/>
+      <c r="B267" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mileage Plus  </t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>14</v>
+      </c>
+      <c r="D267" t="n">
+        <v>951.4285714285714</v>
+      </c>
+      <c r="E267" t="n">
+        <v>-0.06357142857142858</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n"/>
+      <c r="B268" s="1" t="inlineStr">
+        <is>
+          <t>Other  Topics</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2</v>
+      </c>
+      <c r="D268" t="n">
+        <v>180</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n"/>
+      <c r="B269" s="1" t="inlineStr">
+        <is>
+          <t>Other Topics</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>288</v>
+      </c>
+      <c r="E269" t="n">
+        <v>-0.046</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n"/>
+      <c r="B270" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other Topics  </t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>180</v>
+      </c>
+      <c r="E270" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n"/>
+      <c r="B271" s="1" t="inlineStr">
+        <is>
+          <t>Post Flight</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>7</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2151.428571428572</v>
+      </c>
+      <c r="E271" t="n">
+        <v>-0.1042857142857143</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n"/>
+      <c r="B272" s="1" t="inlineStr">
+        <is>
+          <t>Post-Flight</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>26</v>
+      </c>
+      <c r="D272" t="n">
+        <v>810</v>
+      </c>
+      <c r="E272" t="n">
+        <v>-0.03730769230769231</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n"/>
+      <c r="B273" s="1" t="inlineStr">
+        <is>
+          <t>Products &amp; Services</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>912</v>
+      </c>
+      <c r="E273" t="n">
+        <v>-0.003999999999999998</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n"/>
+      <c r="B274" s="1" t="inlineStr">
+        <is>
+          <t>Products and Services</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>26</v>
+      </c>
+      <c r="D274" t="n">
+        <v>770.7692307692307</v>
+      </c>
+      <c r="E274" t="n">
+        <v>-0.02538461538461539</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n"/>
+      <c r="B275" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Products and Services  </t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>840</v>
+      </c>
+      <c r="E275" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n"/>
+      <c r="B276" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Change</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>9</v>
+      </c>
+      <c r="D276" t="n">
+        <v>426.6666666666667</v>
+      </c>
+      <c r="E276" t="n">
+        <v>-0.05888888888888889</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n"/>
+      <c r="B277" s="1" t="inlineStr">
+        <is>
+          <t>Seating</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>54</v>
+      </c>
+      <c r="D277" t="n">
+        <v>491.1111111111111</v>
+      </c>
+      <c r="E277" t="n">
+        <v>-0.0130188679245283</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n"/>
+      <c r="B278" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seating  </t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>180</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n"/>
+      <c r="B279" s="1" t="inlineStr">
+        <is>
+          <t>Traveler  Updates</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>60</v>
+      </c>
+      <c r="E279" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n"/>
+      <c r="B280" s="1" t="inlineStr">
+        <is>
+          <t>Traveler Updates</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>11</v>
+      </c>
+      <c r="D280" t="n">
+        <v>490.9090909090909</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.08181818181818182</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n"/>
+      <c r="B281" s="1" t="inlineStr">
+        <is>
+          <t>Unaccompanied Minor</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>5</v>
+      </c>
+      <c r="D281" t="n">
+        <v>264</v>
+      </c>
+      <c r="E281" t="n">
+        <v>-0.114</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n"/>
+      <c r="B282" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary   Change</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>2</v>
+      </c>
+      <c r="D282" t="n">
+        <v>510</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n"/>
+      <c r="B283" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Cancel</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>4</v>
+      </c>
+      <c r="D283" t="n">
+        <v>360</v>
+      </c>
+      <c r="E283" t="n">
+        <v>-0.0275</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n"/>
+      <c r="B284" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Change</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>2</v>
+      </c>
+      <c r="D284" t="n">
+        <v>570</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n"/>
+      <c r="B285" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Cancel</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>16</v>
+      </c>
+      <c r="D285" t="n">
+        <v>506.25</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-0.055625</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n"/>
+      <c r="B286" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Change</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>111</v>
+      </c>
+      <c r="D286" t="n">
+        <v>569.7297297297297</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-0.008108108108108107</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n"/>
+      <c r="B287" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Change  </t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2</v>
+      </c>
+      <c r="D287" t="n">
+        <v>390</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-0.015</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A159:A209"/>
+    <mergeCell ref="A210:A249"/>
+    <mergeCell ref="A250:A287"/>
+    <mergeCell ref="A54:A105"/>
+    <mergeCell ref="A2:A53"/>
+    <mergeCell ref="A106:A158"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>average_sentiment</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>customer_tone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>silence_percent_average</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>&lt;lambda&gt;</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>primary_call_reason</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Baggage</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.0228235294117647</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1286061888896809</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2666279069767442</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Baggage</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.01898773006134969</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1659290863077237</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2507110091743119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baggage  </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.03153846153846154</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1723187129110481</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2357692307692308</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Booking</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.01325193798449612</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1459976791291338</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.261297798377752</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Booking  </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.01978723404255319</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1718757053639551</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2420833333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Check In</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.02950649350649351</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1383271167695122</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2648571428571428</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Check-In</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.04572293207800941</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1395069134550704</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2619395973154363</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check-In  </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.08206896551724138</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1592029098429518</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2755172413793103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Checkout</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.06887377584330795</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1368849508698097</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2908152173913043</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Checkout  </t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.075</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1002549940391362</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3495833333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Communications</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.03669401799894124</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1389921820008194</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3039745964540884</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Communications  </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.01770491803278689</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1480246988695124</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.279016393442623</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Digital   Support</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.03625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1685271161827938</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2760294117647059</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Digital  Support</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.03026666666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1617637026514153</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2610666666666667</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Digital Support</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.04486377396569122</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1549068035541337</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2895682730923695</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Digital Support  </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01444444444444445</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1948520471061002</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Disability</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03649746192893401</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1428959522666874</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2465482233502538</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disability  </t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.00333333333333333</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.203654118544163</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.04913885898815931</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.140482201777909</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2870860215053764</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ETC  </t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.05727272727272727</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1076228785281456</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3077272727272727</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>IRROPS</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.07418130224710484</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1474640245923436</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3091200122539634</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IRROPS  </t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.06806324110671937</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1478087431653494</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3239763779527559</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Mileage   Plus</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.02364341085271318</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1324996343420433</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2833333333333333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Mileage  Plus</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.03207407407407407</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1554871799499896</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Mileage Plus</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.02765918627987593</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1257914124463595</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2749152542372881</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mileage Plus  </t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.0116</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1396367582065132</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2806</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Other  Topics</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.009273504273504275</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.139268112925379</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2618376068376069</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Other Topics</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0006713780918727914</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1392339654187839</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2779401408450704</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Other Topics  </t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.036875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1230023712508557</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.246875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Post Flight</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.06510752688172043</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.147418904555292</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2968096514745309</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Post-Flight</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.06368911917098445</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1456867705863085</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2976841561126906</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Post-Flight  </t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.06874999999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1595310116502773</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.3072727272727273</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Products &amp; Services</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.0340546218487395</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1534986684655564</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2746218487394958</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Products and Services</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.03378184427700036</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1393242580221047</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2770916905444126</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Products and Services  </t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.06546874999999999</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1079672155927768</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.278125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Change</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.03256011315417256</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1503455236461679</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>frustrated</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2625318246110325</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schedule Change  </t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.07166666666666667</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1189690009557355</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.4054166666666667</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Seating</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.002868404118404119</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1371530766287505</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.2649847340511007</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seating  </t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.001549295774647887</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1331468329062908</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2483098591549296</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Traveler   Updates</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.01863247863247863</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1300590448332654</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2630769230769231</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Traveler  Updates</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.004473684210526317</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.1576979214317601</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2555263157894737</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Traveler Updates</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01116036505867014</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1457673818175909</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2882253886010362</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traveler Updates  </t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1064372532945533</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Unaccompanied Minor</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.01368932038834952</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.126405744868689</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2439805825242718</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unaccompanied Minor  </t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Upgrade</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.0158715938783128</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.1327237212945922</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2774869500372856</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upgrade  </t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.0225</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1600710069710542</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2548214285714286</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary   Change</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.0044</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1199943047224707</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2794</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Cancel</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.0202158273381295</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1401544667502077</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.2807913669064748</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary  Change</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.02496644295302014</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2462272740537441</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.3116778523489933</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Cancel</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.03318251533742331</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1490185146169989</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>angry</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.283159509202454</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Cancel  </t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1553490693030806</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Voluntary Change</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.004091262891613154</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1297684940980124</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>polite</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2897055679720144</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voluntary Change  </t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.01076923076923077</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1308330226725181</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>calm</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2783173076923077</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>